--- a/plots/cluster_daily_by_state.xlsx
+++ b/plots/cluster_daily_by_state.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nandy/repository/git/agp/plots/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{5265D52B-BCBF-A24C-BAB2-D8C8C17E7D38}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{CC5D5139-C6B3-9D45-91E1-1771CCD8E32A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7300" yWindow="-19360" windowWidth="28040" windowHeight="16320"/>
   </bookViews>
@@ -630,7 +630,17 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="351">
+  <dxfs count="54">
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF34AAC3"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color auto="1"/>
@@ -883,13 +893,8 @@
     </dxf>
     <dxf>
       <font>
-        <color auto="1"/>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
       </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF34AAC3"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
@@ -1147,2997 +1152,17 @@
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FF55BEC1"/>
+          <bgColor rgb="FF34AAC3"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <color auto="1"/>
+        <color theme="0"/>
       </font>
       <fill>
-        <patternFill>
-          <bgColor rgb="FFB0E0B6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF97D7B9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF3FAC0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF11236B"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF081D58"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF243392"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF1B2C80"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF206EB0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF225CA8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF23419A"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF2550A2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF1F80B8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF299DC1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF1D90C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE1F3B2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF9FDCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFD9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFEDF8B2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7ECDBB"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD4EEB3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF6BC6BE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6E9B4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFB0E0B6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF97D7B9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF3FAC0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF11236B"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF081D58"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF243392"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF1B2C80"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF206EB0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF225CA8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF23419A"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF2550A2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF1F80B8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF299DC1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF1D90C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE1F3B2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF9FDCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFD9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFEDF8B2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7ECDBB"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD4EEB3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF6BC6BE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6E9B4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF97D7B9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF3FAC0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF11236B"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF081D58"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF243392"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF1B2C80"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF206EB0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF225CA8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF23419A"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF2550A2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF1F80B8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF299DC1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF1D90C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE1F3B2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF9FDCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFD9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFEDF8B2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7ECDBB"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD4EEB3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF6BC6BE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6E9B4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF3FAC0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF11236B"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF081D58"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF243392"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF1B2C80"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF206EB0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF225CA8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF23419A"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF2550A2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF1F80B8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF299DC1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF1D90C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE1F3B2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF9FDCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFD9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFEDF8B2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7ECDBB"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD4EEB3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF6BC6BE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6E9B4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF11236B"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF081D58"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF243392"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF1B2C80"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF206EB0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF225CA8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF23419A"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF2550A2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF1F80B8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF299DC1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF1D90C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE1F3B2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF9FDCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFD9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFEDF8B2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7ECDBB"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD4EEB3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF6BC6BE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6E9B4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF081D58"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF243392"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF1B2C80"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF206EB0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF225CA8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF23419A"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF2550A2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF1F80B8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF299DC1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF1D90C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE1F3B2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF9FDCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFD9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFEDF8B2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7ECDBB"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD4EEB3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF6BC6BE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6E9B4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF243392"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF1B2C80"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF206EB0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF225CA8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF23419A"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF2550A2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF1F80B8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF299DC1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF1D90C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE1F3B2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF9FDCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFD9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFEDF8B2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7ECDBB"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD4EEB3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF6BC6BE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6E9B4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF1B2C80"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF206EB0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF225CA8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF23419A"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF2550A2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF1F80B8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF299DC1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF1D90C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE1F3B2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF9FDCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFD9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFEDF8B2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7ECDBB"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD4EEB3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF6BC6BE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6E9B4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF206EB0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF225CA8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF23419A"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF2550A2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF1F80B8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF299DC1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF1D90C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE1F3B2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF9FDCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFD9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFEDF8B2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7ECDBB"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD4EEB3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF6BC6BE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6E9B4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF225CA8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF23419A"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF2550A2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF1F80B8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF299DC1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF1D90C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE1F3B2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF9FDCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFD9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFEDF8B2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7ECDBB"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD4EEB3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF6BC6BE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6E9B4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF23419A"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF2550A2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF1F80B8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF299DC1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF1D90C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE1F3B2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF9FDCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFD9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFEDF8B2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7ECDBB"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD4EEB3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF6BC6BE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6E9B4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF2550A2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF1F80B8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF299DC1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF1D90C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE1F3B2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF9FDCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFD9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFEDF8B2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7ECDBB"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD4EEB3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF6BC6BE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6E9B4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF1F80B8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF299DC1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF1D90C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE1F3B2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF9FDCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFD9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFEDF8B2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7ECDBB"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD4EEB3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF6BC6BE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6E9B4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF299DC1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF1D90C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE1F3B2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF9FDCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFD9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFEDF8B2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7ECDBB"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD4EEB3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF6BC6BE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6E9B4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF1D90C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE1F3B2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF9FDCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFD9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFEDF8B2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7ECDBB"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD4EEB3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF6BC6BE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6E9B4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE1F3B2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF9FDCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFD9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFEDF8B2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7ECDBB"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD4EEB3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF6BC6BE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6E9B4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF9FDCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFD9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFEDF8B2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7ECDBB"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD4EEB3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF6BC6BE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6E9B4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFD9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFEDF8B2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7ECDBB"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD4EEB3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF6BC6BE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6E9B4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFEDF8B2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7ECDBB"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD4EEB3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF6BC6BE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6E9B4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7ECDBB"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD4EEB3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF6BC6BE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6E9B4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD4EEB3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF6BC6BE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6E9B4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF6BC6BE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6E9B4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF6BC6BE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6E9B4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6E9B4"/>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4467,7 +1492,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH596"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A584" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A243" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:AH596"/>
     </sheetView>
   </sheetViews>
@@ -63591,83 +60616,86 @@
     <mergeCell ref="B88:B99"/>
   </mergeCells>
   <conditionalFormatting sqref="D2:AH596">
-    <cfRule type="cellIs" dxfId="26" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="27" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="26" operator="equal">
       <formula>11</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="25" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="24" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="23" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="22" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="21" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="20" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="19" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="35" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="18" operator="equal">
       <formula>16</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="17" operator="equal">
       <formula>15</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="16" operator="equal">
       <formula>17</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="15" operator="equal">
       <formula>20</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="14" operator="equal">
       <formula>21</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="13" operator="equal">
       <formula>19</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="41" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="12" operator="equal">
       <formula>18</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="11" operator="equal">
       <formula>23</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="43" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="10" operator="equal">
       <formula>22</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="9" operator="equal">
       <formula>25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="8" operator="equal">
       <formula>24</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="7" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="47" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="6" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="5" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="4" operator="equal">
       <formula>12</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="3" operator="equal">
       <formula>13</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="2" operator="equal">
       <formula>14</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="26" priority="1" operator="greaterThan">
+      <formula>12</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
